--- a/数据整理/stocks/港股/01610-中粮家佳康.xlsx
+++ b/数据整理/stocks/港股/01610-中粮家佳康.xlsx
@@ -1,102 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q2" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>005142</t>
-  </si>
-  <si>
-    <t>005143</t>
-  </si>
-  <si>
-    <t>中融沪港深大消费主题灵活配置混合A</t>
-  </si>
-  <si>
-    <t>中融沪港深大消费主题灵活配置混合C</t>
-  </si>
-  <si>
-    <t>0.71</t>
-  </si>
-  <si>
-    <t>0.48</t>
-  </si>
-  <si>
-    <t>91.94</t>
-  </si>
-  <si>
-    <t>3.84</t>
-  </si>
-  <si>
-    <t>0.0273</t>
-  </si>
-  <si>
-    <t>0.0184</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -119,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -421,89 +446,185 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005142</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005143</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/01610-中粮家佳康.xlsx
+++ b/数据整理/stocks/港股/01610-中粮家佳康.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -583,7 +584,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -594,17 +595,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -614,13 +635,369 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>001764</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发沪港深新机遇股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7400</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011583</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成港股精选混合型证券投资基金（QDII）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>65.69</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1398</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006136</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发估值优势混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1336</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006595</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发港股通优质增长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.22</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1096</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012071</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中加喜利回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>38.07</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0741</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012072</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中加喜利回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>38.07</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0393</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011584</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成港股精选混合型证券投资基金（QDII）C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>65.69</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011430</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发估值优势混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>2</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>0.05</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01610-中粮家佳康.xlsx
+++ b/数据整理/stocks/港股/01610-中粮家佳康.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -944,7 +945,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -955,17 +956,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -975,14 +996,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.25</v>
+          <t>010377</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发价值核心混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>34.68</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9039</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -991,13 +1034,727 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>001764</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发沪港深新机遇股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.12</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8618</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005644</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发沪港深行业龙头混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.85</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.27</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6870</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006595</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发港股通优质增长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.63</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5570</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011908</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发沪港深价值精选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.09</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4722</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009846</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富兰克林国海港股通远见价值混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>19.47</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.72</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4303</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010378</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发价值核心混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3020</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>457001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国富亚洲机会股票 (QDII)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>77.36</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1702</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011583</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成港股精选混合型证券投资基金（QDII）A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>75.28</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1698</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006671</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发消费升级股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1618</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006136</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发估值优势混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1323</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011909</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发沪港深价值精选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1086</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012924</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏新时代灵活配置混合（QDII）美元现汇</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0845</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012925</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏新时代灵活配置混合（QDII）美元现钞</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0845</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011584</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大成港股精选混合型证券投资基金（QDII）C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>75.28</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008861</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>西部利得港股通新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>77.31</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010093</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>西部利得港股通新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>77.31</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011430</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发估值优势混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>18</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.16</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>2</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.05</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01610-中粮家佳康.xlsx
+++ b/数据整理/stocks/港股/01610-中粮家佳康.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1685,7 +1686,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1696,17 +1697,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1716,14 +1737,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>18</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.16</v>
+          <t>000934</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国富大中华精选混合QDII</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.39</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7393</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1732,14 +1775,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.25</v>
+          <t>006370</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国富大中华精选混合QDII美元</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.39</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7393</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1748,13 +1813,439 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>009846</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富兰克林国海港股通远见价值混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4937</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006039</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富兰克林国海估值优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.47</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3841</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>457001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国富亚洲机会股票 (QDII)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.52</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1947</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011583</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成港股精选混合型证券投资基金（QDII）A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.99</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1661</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009242</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中加核心智造混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>61.92</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0605</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011584</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成港股精选混合型证券投资基金（QDII）C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.99</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009243</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中加核心智造混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>61.92</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161124</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006263</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.82</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>18</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>2</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.05</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01610-中粮家佳康.xlsx
+++ b/数据整理/stocks/港股/01610-中粮家佳康.xlsx
@@ -6,11 +6,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,129 +454,97 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005142</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中融沪港深大消费主题灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.94</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.84</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0273</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.82</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>18</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>8</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>005143</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中融沪港深大消费主题灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.94</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.84</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0184</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
+      <c r="D4" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -586,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -637,36 +605,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001764</t>
+          <t>000934</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发沪港深新机遇股票</t>
+          <t>国富大中华精选混合QDII</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>11.58</t>
+          <t>25.58</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.62</t>
+          <t>86.39</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.39</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.7400</t>
+          <t>0.7393</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -675,36 +643,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011583</t>
+          <t>006370</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>大成港股精选混合型证券投资基金（QDII）A</t>
+          <t>国富大中华精选混合QDII美元</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.94</t>
+          <t>25.58</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>65.69</t>
+          <t>86.39</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.83</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1398</t>
+          <t>0.7393</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -713,36 +681,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006136</t>
+          <t>009846</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发估值优势混合A</t>
+          <t>富兰克林国海港股通远见价值混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>16.08</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.42</t>
+          <t>85.60</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.22</t>
+          <t>3.07</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1336</t>
+          <t>0.4937</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -751,36 +719,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006595</t>
+          <t>006039</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发港股通优质增长混合</t>
+          <t>富兰克林国海估值优势灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>12.47</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>85.22</t>
+          <t>91.21</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.30</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1096</t>
+          <t>0.3841</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -789,36 +757,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>012071</t>
+          <t>457001</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中加喜利回报一年持有期混合A</t>
+          <t>国富亚洲机会股票 (QDII)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.33</t>
+          <t>5.66</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>38.07</t>
+          <t>87.52</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>3.44</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0741</t>
+          <t>0.1947</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -827,36 +795,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>012072</t>
+          <t>011583</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中加喜利回报一年持有期混合C</t>
+          <t>大成港股精选混合型证券投资基金（QDII）A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.83</t>
+          <t>3.02</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>38.07</t>
+          <t>85.99</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0393</t>
+          <t>0.1661</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -865,32 +833,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>011584</t>
+          <t>009242</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>大成港股精选混合型证券投资基金（QDII）C</t>
+          <t>中加核心智造混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>65.69</t>
+          <t>61.92</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.83</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0110</t>
+          <t>0.0605</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -903,36 +871,150 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>011430</t>
+          <t>011584</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>广发估值优势混合C</t>
+          <t>大成港股精选混合型证券投资基金（QDII）C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>93.42</t>
+          <t>85.99</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>5.22</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0037</t>
+          <t>0.0226</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>6</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009243</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中加核心智造混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>61.92</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161124</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006263</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1686,7 +1768,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1737,36 +1819,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000934</t>
+          <t>001764</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国富大中华精选混合QDII</t>
+          <t>广发沪港深新机遇股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>25.58</t>
+          <t>11.58</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>86.39</t>
+          <t>91.62</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>6.39</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.7393</t>
+          <t>0.7400</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1775,36 +1857,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006370</t>
+          <t>011583</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国富大中华精选混合QDII美元</t>
+          <t>大成港股精选混合型证券投资基金（QDII）A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>25.58</t>
+          <t>4.94</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>86.39</t>
+          <t>65.69</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>2.83</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.7393</t>
+          <t>0.1398</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1813,36 +1895,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009846</t>
+          <t>006136</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>富兰克林国海港股通远见价值混合</t>
+          <t>广发估值优势混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>16.08</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>85.60</t>
+          <t>93.42</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.07</t>
+          <t>5.22</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.4937</t>
+          <t>0.1336</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1851,36 +1933,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006039</t>
+          <t>006595</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>富兰克林国海估值优势灵活配置混合</t>
+          <t>广发港股通优质增长混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>12.47</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>91.21</t>
+          <t>85.22</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.3841</t>
+          <t>0.1096</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1889,36 +1971,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>457001</t>
+          <t>012071</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国富亚洲机会股票 (QDII)</t>
+          <t>中加喜利回报一年持有期混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.66</t>
+          <t>5.33</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>87.52</t>
+          <t>38.07</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.44</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1947</t>
+          <t>0.0741</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -1927,36 +2009,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>011583</t>
+          <t>012072</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>大成港股精选混合型证券投资基金（QDII）A</t>
+          <t>中加喜利回报一年持有期混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3.02</t>
+          <t>2.83</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>85.99</t>
+          <t>38.07</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1661</t>
+          <t>0.0393</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1965,32 +2047,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>009242</t>
+          <t>011584</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中加核心智造混合A</t>
+          <t>大成港股精选混合型证券投资基金（QDII）C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>61.92</t>
+          <t>65.69</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>2.83</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0605</t>
+          <t>0.0110</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -2003,150 +2085,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>011584</t>
+          <t>011430</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>大成港股精选混合型证券投资基金（QDII）C</t>
+          <t>广发估值优势混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>85.99</t>
+          <t>93.42</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>5.22</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0226</t>
+          <t>0.0037</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>009243</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>中加核心智造混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>61.92</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.43</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0100</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>161124</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>93.71</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0045</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>006263</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>易方达香港恒生综合小型股指数（QDII-LOF）C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>93.71</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0009</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2160,96 +2128,128 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.82</v>
+          <t>005142</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>18</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.16</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>005143</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>8</v>
       </c>
-      <c r="D4" t="n">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.05</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/港股/01610-中粮家佳康.xlsx
+++ b/数据整理/stocks/港股/01610-中粮家佳康.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>2.82</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D3" t="n">
-        <v>6.16</v>
+        <v>2.82</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D4" t="n">
-        <v>1.25</v>
+        <v>6.16</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -549,6 +566,176 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011583</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成港股精选混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1315</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>457001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国富亚洲机会股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.80</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0901</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011584</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成港股精选混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.40</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1022,7 +1209,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1762,7 +1949,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2122,7 +2309,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/01610-中粮家佳康.xlsx
+++ b/数据整理/stocks/港股/01610-中粮家佳康.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.24</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>2.82</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D4" t="n">
-        <v>6.16</v>
+        <v>2.82</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D5" t="n">
-        <v>1.25</v>
+        <v>6.16</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>8</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -566,6 +583,138 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012072</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中加喜利回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>36.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012071</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中加喜利回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>36.36</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -735,7 +884,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1209,7 +1358,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1949,7 +2098,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2309,7 +2458,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
